--- a/Log.xlsx
+++ b/Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeLeon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42B60B7-F1FC-420E-A489-AB31518E60BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C55EC-4D5F-4964-97E5-25AE5E724110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="3945" windowWidth="21525" windowHeight="11415" xr2:uid="{8B80E631-8491-4E5C-B86B-9DF1C771C5E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B80E631-8491-4E5C-B86B-9DF1C771C5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>File Name</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>iOs_2020-09-03.zip</t>
+  </si>
+  <si>
+    <t>android_2020-09-09.zip</t>
+  </si>
+  <si>
+    <t>iOs_2020-09-10.zip</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6487D8-A005-4EB1-911F-1EAD92A2218E}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +667,22 @@
         <v>44085</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
